--- a/Summary_For_Each_Volcano/MeltInclusionCompilation_april23.xlsx
+++ b/Summary_For_Each_Volcano/MeltInclusionCompilation_april23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Melt_Inclusion_Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Summary_For_Each_Volcano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C847010-2DE0-4FE1-BC0E-95FE59E36C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C28047-B707-4088-8FAE-BFE41F55F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Melt_Inclusion_Investigation_Ja" sheetId="1" r:id="rId1"/>
@@ -3216,7 +3216,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3226,6 +3226,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3583,9 +3586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FB733"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3594,473 +3597,473 @@
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:158" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EI1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EK1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EL1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EM1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EN1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EO1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EP1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ER1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ES1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="ET1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EU1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EV1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EW1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EX1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EY1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="EZ1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FA1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FB1" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -98196,7 +98199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC52BA4-6576-442A-A67D-F4B6C6B2DD41}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
